--- a/src/main/webapp/report/excel/Payment-Report.xlsx
+++ b/src/main/webapp/report/excel/Payment-Report.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A2437465-0E5B-43E8-9327-A24E76009D63}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9062D3-9C0B-41A7-8407-90E15C8AA544}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="21405" windowHeight="5385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,18 +74,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="TH NiramitIT๙"/>
     </font>
     <font>
       <sz val="12"/>
@@ -142,29 +137,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -508,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:L1"/>
@@ -534,109 +523,94 @@
     <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:16" ht="25.5">
+      <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
     </row>
     <row r="2" spans="1:16" ht="15.75">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
     </row>
-    <row r="3" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
+    <row r="3" spans="1:16" ht="15" customHeight="1">
+      <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-    </row>
-    <row r="5" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-    </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="2" t="s">
+    <row r="4" spans="1:16">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="K2:P2"/>
   </mergeCells>
